--- a/simulated_data/10nodes_20len_trial1.xlsx
+++ b/simulated_data/10nodes_20len_trial1.xlsx
@@ -10,20 +10,27 @@
     <sheet name="rss_data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="true_dist" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="est_dist_data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="rss_only_dist" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="rss_post_averaged_dist" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="spring_model_dist" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="spring_model_locs" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="sdp_dist" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="sdp_locs" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="mds_metric_dist" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="mds_metric_locs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="mds_non_metric_dist" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="mds_non_metric_locs" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="sdp_init_spring_dist" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="sdp_init_spring_locs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="runtimes" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="estimation_performance" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="spring_model_dist" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="spring_model_locs" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="estimation_performance" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="rss_only_dist" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="rss_pre_averaged_dist" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="rss_post_averaged_dist" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="spring_model_5inits_dist" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="spring_model_5inits_locs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="sdp_dist" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="sdp_locs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="mds_metric_dist" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="mds_metric_locs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="mds_non_metric_dist" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="mds_non_metric_locs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="sdp_init_spring_dist" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="sdp_init_spring_locs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="lle_dist" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="lle_locs" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="isomap_dist" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="isomap_locs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="runtimes" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,7 +544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,16 +559,64 @@
       <c r="C1" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-8.095491328451455</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-8.095491328451327</v>
+        <v>14.875</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12.185</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.425</v>
+      </c>
+      <c r="G2" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="I2" t="n">
+        <v>13.765</v>
+      </c>
+      <c r="J2" t="n">
+        <v>13.815</v>
+      </c>
+      <c r="K2" t="n">
+        <v>16.695</v>
       </c>
     </row>
     <row r="3">
@@ -569,10 +624,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.018132518302504</v>
+        <v>14.875</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.018132518301133</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.975</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10.545</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.575</v>
+      </c>
+      <c r="J3" t="n">
+        <v>15.035</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8.085000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -580,10 +659,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1185780191146212</v>
+        <v>16.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1185780191136692</v>
+        <v>1.38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5.140000000000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>16.415</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.415</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11.145</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15.695</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10.23</v>
       </c>
     </row>
     <row r="5">
@@ -591,10 +694,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.996347567223522</v>
+        <v>12.185</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.996347567222765</v>
+        <v>6.975</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.140000000000001</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6.005</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8.515000000000001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.25</v>
       </c>
     </row>
     <row r="6">
@@ -602,10 +729,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-10.62154321976439</v>
+        <v>1.425</v>
       </c>
       <c r="C6" t="n">
-        <v>-10.62154321976432</v>
+        <v>12.91</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.415</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>14.775</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9.904999999999999</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="J6" t="n">
+        <v>20.025</v>
+      </c>
+      <c r="K6" t="n">
+        <v>14.885</v>
       </c>
     </row>
     <row r="7">
@@ -613,10 +764,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.112038002681646</v>
+        <v>14.9</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.112038002680475</v>
+        <v>3.33</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.415</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="F7" t="n">
+        <v>14.775</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.535</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10.755</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7.79</v>
       </c>
     </row>
     <row r="8">
@@ -624,10 +799,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-7.029688817425144</v>
+        <v>8.01</v>
       </c>
       <c r="C8" t="n">
-        <v>-7.029688817423955</v>
+        <v>10.545</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.005</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9.904999999999999</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="J8" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="K8" t="n">
+        <v>13.52</v>
       </c>
     </row>
     <row r="9">
@@ -635,10 +834,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-6.48445497206959</v>
+        <v>13.765</v>
       </c>
       <c r="C9" t="n">
-        <v>-6.484454972067732</v>
+        <v>7.575</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.145</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8.515000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.535</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>15.505</v>
       </c>
     </row>
     <row r="10">
@@ -646,10 +869,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.99809534676259</v>
+        <v>13.815</v>
       </c>
       <c r="C10" t="n">
-        <v>2.998095346763085</v>
+        <v>15.035</v>
+      </c>
+      <c r="D10" t="n">
+        <v>15.695</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="F10" t="n">
+        <v>20.025</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10.755</v>
+      </c>
+      <c r="H10" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="I10" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6.295</v>
       </c>
     </row>
     <row r="11">
@@ -657,10 +904,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>16.695</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>8.085000000000001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F11" t="n">
+        <v>14.885</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="H11" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15.505</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6.295</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -722,31 +993,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>15.76</v>
+        <v>15.04</v>
       </c>
       <c r="D2" t="n">
-        <v>17.36</v>
+        <v>16.5</v>
       </c>
       <c r="E2" t="n">
-        <v>11.75</v>
+        <v>11.15</v>
       </c>
       <c r="F2" t="n">
-        <v>2.91</v>
+        <v>1.62</v>
       </c>
       <c r="G2" t="n">
-        <v>14.46</v>
+        <v>14.44</v>
       </c>
       <c r="H2" t="n">
-        <v>8.779999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="I2" t="n">
-        <v>10.4</v>
+        <v>7.77</v>
       </c>
       <c r="J2" t="n">
-        <v>14.7</v>
+        <v>11.3</v>
       </c>
       <c r="K2" t="n">
-        <v>15.72</v>
+        <v>12.62</v>
       </c>
     </row>
     <row r="3">
@@ -754,34 +1025,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15.76</v>
+        <v>15.04</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="E3" t="n">
-        <v>5.34</v>
+        <v>3.98</v>
       </c>
       <c r="F3" t="n">
-        <v>14.75</v>
+        <v>15.45</v>
       </c>
       <c r="G3" t="n">
-        <v>2.6</v>
+        <v>3.09</v>
       </c>
       <c r="H3" t="n">
-        <v>8.119999999999999</v>
+        <v>8.74</v>
       </c>
       <c r="I3" t="n">
-        <v>7.79</v>
+        <v>9.92</v>
       </c>
       <c r="J3" t="n">
-        <v>13.68</v>
+        <v>11.77</v>
       </c>
       <c r="K3" t="n">
-        <v>9.07</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="4">
@@ -789,34 +1060,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17.36</v>
+        <v>16.5</v>
       </c>
       <c r="C4" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.45</v>
+        <v>5.38</v>
       </c>
       <c r="F4" t="n">
-        <v>16.43</v>
+        <v>16.88</v>
       </c>
       <c r="G4" t="n">
-        <v>3.41</v>
+        <v>3.52</v>
       </c>
       <c r="H4" t="n">
-        <v>9.83</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>9.460000000000001</v>
+        <v>11.09</v>
       </c>
       <c r="J4" t="n">
-        <v>14.04</v>
+        <v>13.04</v>
       </c>
       <c r="K4" t="n">
-        <v>9.09</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="5">
@@ -824,34 +1095,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.75</v>
+        <v>11.15</v>
       </c>
       <c r="C5" t="n">
-        <v>5.34</v>
+        <v>3.98</v>
       </c>
       <c r="D5" t="n">
-        <v>6.45</v>
+        <v>5.38</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>11.58</v>
+        <v>11.49</v>
       </c>
       <c r="G5" t="n">
-        <v>3.07</v>
+        <v>3.75</v>
       </c>
       <c r="H5" t="n">
-        <v>6.81</v>
+        <v>5.44</v>
       </c>
       <c r="I5" t="n">
-        <v>7.75</v>
+        <v>6.24</v>
       </c>
       <c r="J5" t="n">
-        <v>9.119999999999999</v>
+        <v>10.25</v>
       </c>
       <c r="K5" t="n">
-        <v>5.92</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="6">
@@ -859,34 +1130,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.91</v>
+        <v>1.62</v>
       </c>
       <c r="C6" t="n">
-        <v>14.75</v>
+        <v>15.45</v>
       </c>
       <c r="D6" t="n">
-        <v>16.43</v>
+        <v>16.88</v>
       </c>
       <c r="E6" t="n">
-        <v>11.58</v>
+        <v>11.49</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>13.91</v>
+        <v>14.53</v>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>8.35</v>
+        <v>7.24</v>
       </c>
       <c r="J6" t="n">
-        <v>16.26</v>
+        <v>12.76</v>
       </c>
       <c r="K6" t="n">
-        <v>16.39</v>
+        <v>13.68</v>
       </c>
     </row>
     <row r="7">
@@ -894,34 +1165,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.46</v>
+        <v>14.44</v>
       </c>
       <c r="C7" t="n">
-        <v>2.6</v>
+        <v>3.09</v>
       </c>
       <c r="D7" t="n">
-        <v>3.41</v>
+        <v>3.52</v>
       </c>
       <c r="E7" t="n">
-        <v>3.07</v>
+        <v>3.75</v>
       </c>
       <c r="F7" t="n">
-        <v>13.91</v>
+        <v>14.53</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>7.99</v>
+        <v>6.53</v>
       </c>
       <c r="I7" t="n">
-        <v>8.26</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>11.08</v>
+        <v>13.62</v>
       </c>
       <c r="K7" t="n">
-        <v>6.62</v>
+        <v>9.050000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -929,34 +1200,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8.779999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="C8" t="n">
-        <v>8.119999999999999</v>
+        <v>8.74</v>
       </c>
       <c r="D8" t="n">
-        <v>9.83</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>6.81</v>
+        <v>5.44</v>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>7.99</v>
+        <v>6.53</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="J8" t="n">
-        <v>14.83</v>
+        <v>13.91</v>
       </c>
       <c r="K8" t="n">
-        <v>12.69</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="9">
@@ -964,34 +1235,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>10.4</v>
+        <v>7.77</v>
       </c>
       <c r="C9" t="n">
-        <v>7.79</v>
+        <v>9.92</v>
       </c>
       <c r="D9" t="n">
-        <v>9.460000000000001</v>
+        <v>11.09</v>
       </c>
       <c r="E9" t="n">
-        <v>7.75</v>
+        <v>6.24</v>
       </c>
       <c r="F9" t="n">
-        <v>8.35</v>
+        <v>7.24</v>
       </c>
       <c r="G9" t="n">
-        <v>8.26</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>16.26</v>
+        <v>13.38</v>
       </c>
       <c r="K9" t="n">
-        <v>13.67</v>
+        <v>11.41</v>
       </c>
     </row>
     <row r="10">
@@ -999,34 +1270,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14.7</v>
+        <v>11.3</v>
       </c>
       <c r="C10" t="n">
-        <v>13.68</v>
+        <v>11.77</v>
       </c>
       <c r="D10" t="n">
-        <v>14.04</v>
+        <v>13.04</v>
       </c>
       <c r="E10" t="n">
-        <v>9.119999999999999</v>
+        <v>10.25</v>
       </c>
       <c r="F10" t="n">
-        <v>16.26</v>
+        <v>12.76</v>
       </c>
       <c r="G10" t="n">
-        <v>11.08</v>
+        <v>13.62</v>
       </c>
       <c r="H10" t="n">
-        <v>14.83</v>
+        <v>13.91</v>
       </c>
       <c r="I10" t="n">
-        <v>16.26</v>
+        <v>13.38</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>5.31</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="11">
@@ -1034,31 +1305,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15.72</v>
+        <v>12.62</v>
       </c>
       <c r="C11" t="n">
-        <v>9.07</v>
+        <v>6.77</v>
       </c>
       <c r="D11" t="n">
-        <v>9.09</v>
+        <v>7.93</v>
       </c>
       <c r="E11" t="n">
-        <v>5.92</v>
+        <v>6.34</v>
       </c>
       <c r="F11" t="n">
-        <v>16.39</v>
+        <v>13.68</v>
       </c>
       <c r="G11" t="n">
-        <v>6.62</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>12.69</v>
+        <v>11.28</v>
       </c>
       <c r="I11" t="n">
-        <v>13.67</v>
+        <v>11.41</v>
       </c>
       <c r="J11" t="n">
-        <v>5.31</v>
+        <v>5.17</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1096,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9.579223023982701</v>
+        <v>-1.487869829726791</v>
       </c>
       <c r="C2" t="n">
-        <v>3.152589022540951</v>
+        <v>-0.749246748727281</v>
       </c>
     </row>
     <row r="3">
@@ -1107,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-5.989251872446636</v>
+        <v>7.41578569446114</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6771937023753224</v>
+        <v>11.37333927385018</v>
       </c>
     </row>
     <row r="4">
@@ -1118,10 +1389,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-7.456936309457115</v>
+        <v>7.997856341674246</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2004443978718049</v>
+        <v>12.75606516325394</v>
       </c>
     </row>
     <row r="5">
@@ -1129,10 +1400,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.158322876065221</v>
+        <v>4.529023282180692</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.607691873385667</v>
+        <v>8.638864994721027</v>
       </c>
     </row>
     <row r="6">
@@ -1140,10 +1411,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.93351596710574</v>
+        <v>-2.965579723954939</v>
       </c>
       <c r="C6" t="n">
-        <v>5.558099721735957</v>
+        <v>-0.07348272286860033</v>
       </c>
     </row>
     <row r="7">
@@ -1151,10 +1422,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-4.207279703152447</v>
+        <v>4.497664427614352</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.221838447301589</v>
+        <v>12.39153101133031</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1433,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9643187587678945</v>
+        <v>-0.9136976012073014</v>
       </c>
       <c r="C8" t="n">
-        <v>4.866686046418927</v>
+        <v>8.731261071052934</v>
       </c>
     </row>
     <row r="9">
@@ -1173,10 +1444,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.3970723766614248</v>
+        <v>-1.497186677668616</v>
       </c>
       <c r="C9" t="n">
-        <v>6.101991566302015</v>
+        <v>7.019754618032795</v>
       </c>
     </row>
     <row r="10">
@@ -1184,10 +1455,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.740412906916367</v>
+        <v>9.79166105921515</v>
       </c>
       <c r="C10" t="n">
-        <v>-9.855232608629834</v>
+        <v>-0.1561552983084495</v>
       </c>
     </row>
     <row r="11">
@@ -1195,10 +1466,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.008607518989863</v>
+        <v>9.73486926671583</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.471352732184275</v>
+        <v>5.01643875652955</v>
       </c>
     </row>
   </sheetData>
@@ -1260,31 +1531,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>11.76</v>
+        <v>10.01</v>
       </c>
       <c r="D2" t="n">
-        <v>14.08</v>
+        <v>11.28</v>
       </c>
       <c r="E2" t="n">
-        <v>12.37</v>
+        <v>7.21</v>
       </c>
       <c r="F2" t="n">
-        <v>2.17</v>
+        <v>3.57</v>
       </c>
       <c r="G2" t="n">
-        <v>11.76</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>7.89</v>
+        <v>1.51</v>
       </c>
       <c r="I2" t="n">
-        <v>10.05</v>
+        <v>2.28</v>
       </c>
       <c r="J2" t="n">
-        <v>19.95</v>
+        <v>15.69</v>
       </c>
       <c r="K2" t="n">
-        <v>19.95</v>
+        <v>12.86</v>
       </c>
     </row>
     <row r="3">
@@ -1292,34 +1563,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.76</v>
+        <v>10.01</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.47</v>
+        <v>1.27</v>
       </c>
       <c r="E3" t="n">
-        <v>4.49</v>
+        <v>2.8</v>
       </c>
       <c r="F3" t="n">
-        <v>9.74</v>
+        <v>13.58</v>
       </c>
       <c r="G3" t="n">
-        <v>2.78</v>
+        <v>1.55</v>
       </c>
       <c r="H3" t="n">
-        <v>9.9</v>
+        <v>8.5</v>
       </c>
       <c r="I3" t="n">
-        <v>11.45</v>
+        <v>7.73</v>
       </c>
       <c r="J3" t="n">
-        <v>12.68</v>
+        <v>5.68</v>
       </c>
       <c r="K3" t="n">
-        <v>9.279999999999999</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="4">
@@ -1327,34 +1598,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.08</v>
+        <v>11.28</v>
       </c>
       <c r="C4" t="n">
-        <v>2.47</v>
+        <v>1.27</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.03</v>
+        <v>4.07</v>
       </c>
       <c r="F4" t="n">
-        <v>11.91</v>
+        <v>14.85</v>
       </c>
       <c r="G4" t="n">
-        <v>4.64</v>
+        <v>2.82</v>
       </c>
       <c r="H4" t="n">
-        <v>12.22</v>
+        <v>9.77</v>
       </c>
       <c r="I4" t="n">
-        <v>13.61</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>13.15</v>
+        <v>4.41</v>
       </c>
       <c r="K4" t="n">
-        <v>8.66</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="5">
@@ -1362,34 +1633,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.37</v>
+        <v>7.21</v>
       </c>
       <c r="C5" t="n">
-        <v>4.49</v>
+        <v>2.8</v>
       </c>
       <c r="D5" t="n">
-        <v>6.03</v>
+        <v>4.07</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>10.98</v>
+        <v>10.78</v>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="H5" t="n">
-        <v>7.42</v>
+        <v>5.7</v>
       </c>
       <c r="I5" t="n">
-        <v>8.199999999999999</v>
+        <v>4.93</v>
       </c>
       <c r="J5" t="n">
-        <v>8.66</v>
+        <v>8.48</v>
       </c>
       <c r="K5" t="n">
-        <v>7.58</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="6">
@@ -1397,34 +1668,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.17</v>
+        <v>3.57</v>
       </c>
       <c r="C6" t="n">
-        <v>9.74</v>
+        <v>13.58</v>
       </c>
       <c r="D6" t="n">
-        <v>11.91</v>
+        <v>14.85</v>
       </c>
       <c r="E6" t="n">
-        <v>10.98</v>
+        <v>10.78</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>10.05</v>
+        <v>12.03</v>
       </c>
       <c r="H6" t="n">
-        <v>7.73</v>
+        <v>5.08</v>
       </c>
       <c r="I6" t="n">
-        <v>10.05</v>
+        <v>5.85</v>
       </c>
       <c r="J6" t="n">
-        <v>18.87</v>
+        <v>19.26</v>
       </c>
       <c r="K6" t="n">
-        <v>18.25</v>
+        <v>16.44</v>
       </c>
     </row>
     <row r="7">
@@ -1432,34 +1703,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.76</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>2.78</v>
+        <v>1.55</v>
       </c>
       <c r="D7" t="n">
-        <v>4.64</v>
+        <v>2.82</v>
       </c>
       <c r="E7" t="n">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="F7" t="n">
-        <v>10.05</v>
+        <v>12.03</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>7.89</v>
+        <v>6.95</v>
       </c>
       <c r="I7" t="n">
-        <v>9.130000000000001</v>
+        <v>6.18</v>
       </c>
       <c r="J7" t="n">
-        <v>10.21</v>
+        <v>7.23</v>
       </c>
       <c r="K7" t="n">
-        <v>8.199999999999999</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="8">
@@ -1467,34 +1738,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7.89</v>
+        <v>1.51</v>
       </c>
       <c r="C8" t="n">
-        <v>9.9</v>
+        <v>8.5</v>
       </c>
       <c r="D8" t="n">
-        <v>12.22</v>
+        <v>9.77</v>
       </c>
       <c r="E8" t="n">
-        <v>7.42</v>
+        <v>5.7</v>
       </c>
       <c r="F8" t="n">
-        <v>7.73</v>
+        <v>5.08</v>
       </c>
       <c r="G8" t="n">
-        <v>7.89</v>
+        <v>6.95</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.32</v>
+        <v>0.77</v>
       </c>
       <c r="J8" t="n">
-        <v>12.68</v>
+        <v>14.18</v>
       </c>
       <c r="K8" t="n">
-        <v>14.54</v>
+        <v>11.36</v>
       </c>
     </row>
     <row r="9">
@@ -1502,34 +1773,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>10.05</v>
+        <v>2.28</v>
       </c>
       <c r="C9" t="n">
-        <v>11.45</v>
+        <v>7.73</v>
       </c>
       <c r="D9" t="n">
-        <v>13.61</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
-        <v>8.199999999999999</v>
+        <v>4.93</v>
       </c>
       <c r="F9" t="n">
-        <v>10.05</v>
+        <v>5.85</v>
       </c>
       <c r="G9" t="n">
-        <v>9.130000000000001</v>
+        <v>6.18</v>
       </c>
       <c r="H9" t="n">
-        <v>2.32</v>
+        <v>0.77</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>11.6</v>
+        <v>13.41</v>
       </c>
       <c r="K9" t="n">
-        <v>14.54</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="10">
@@ -1537,34 +1808,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.95</v>
+        <v>15.69</v>
       </c>
       <c r="C10" t="n">
-        <v>12.68</v>
+        <v>5.68</v>
       </c>
       <c r="D10" t="n">
-        <v>13.15</v>
+        <v>4.41</v>
       </c>
       <c r="E10" t="n">
-        <v>8.66</v>
+        <v>8.48</v>
       </c>
       <c r="F10" t="n">
-        <v>18.87</v>
+        <v>19.26</v>
       </c>
       <c r="G10" t="n">
-        <v>10.21</v>
+        <v>7.23</v>
       </c>
       <c r="H10" t="n">
-        <v>12.68</v>
+        <v>14.18</v>
       </c>
       <c r="I10" t="n">
-        <v>11.6</v>
+        <v>13.41</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>6.65</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="11">
@@ -1572,31 +1843,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19.95</v>
+        <v>12.86</v>
       </c>
       <c r="C11" t="n">
-        <v>9.279999999999999</v>
+        <v>2.85</v>
       </c>
       <c r="D11" t="n">
-        <v>8.66</v>
+        <v>1.58</v>
       </c>
       <c r="E11" t="n">
-        <v>7.58</v>
+        <v>5.65</v>
       </c>
       <c r="F11" t="n">
-        <v>18.25</v>
+        <v>16.44</v>
       </c>
       <c r="G11" t="n">
-        <v>8.199999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="H11" t="n">
-        <v>14.54</v>
+        <v>11.36</v>
       </c>
       <c r="I11" t="n">
-        <v>14.54</v>
+        <v>10.58</v>
       </c>
       <c r="J11" t="n">
-        <v>6.65</v>
+        <v>2.83</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1634,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.5247108466122813</v>
+        <v>-8.095491328451455</v>
       </c>
       <c r="C2" t="n">
-        <v>0.401879646646054</v>
+        <v>-8.095491328451327</v>
       </c>
     </row>
     <row r="3">
@@ -1645,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1389570352536346</v>
+        <v>-1.018132518302504</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2578612516399796</v>
+        <v>-1.018132518301133</v>
       </c>
     </row>
     <row r="4">
@@ -1656,10 +1927,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.127625083855517</v>
+        <v>-0.1185780191146212</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4150115427316388</v>
+        <v>-0.1185780191136692</v>
       </c>
     </row>
     <row r="5">
@@ -1667,10 +1938,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1008112812272518</v>
+        <v>-2.996347567223522</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1032550490402605</v>
+        <v>-2.996347567222765</v>
       </c>
     </row>
     <row r="6">
@@ -1678,10 +1949,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.5036593404983092</v>
+        <v>-10.62154321976439</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2613520427538004</v>
+        <v>-10.62154321976432</v>
       </c>
     </row>
     <row r="7">
@@ -1689,10 +1960,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.003275011396594793</v>
+        <v>-2.112038002681646</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1490212166117555</v>
+        <v>-2.112038002680475</v>
       </c>
     </row>
     <row r="8">
@@ -1700,10 +1971,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.01322327078912081</v>
+        <v>-7.029688817425144</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3654766826275566</v>
+        <v>-7.029688817423955</v>
       </c>
     </row>
     <row r="9">
@@ -1711,10 +1982,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1234832405526767</v>
+        <v>-6.48445497206959</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4291515438259171</v>
+        <v>-6.484454972067732</v>
       </c>
     </row>
     <row r="10">
@@ -1722,10 +1993,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6651543355175493</v>
+        <v>2.99809534676259</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.09616176374890367</v>
+        <v>2.998095346763085</v>
       </c>
     </row>
     <row r="11">
@@ -1733,10 +2004,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4297944844156825</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.4610436169982748</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1798,31 +2069,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13.12</v>
+        <v>15.76</v>
       </c>
       <c r="D2" t="n">
-        <v>14.16</v>
+        <v>17.36</v>
       </c>
       <c r="E2" t="n">
-        <v>9.640000000000001</v>
+        <v>11.75</v>
       </c>
       <c r="F2" t="n">
-        <v>1.38</v>
+        <v>2.91</v>
       </c>
       <c r="G2" t="n">
-        <v>11.15</v>
+        <v>14.46</v>
       </c>
       <c r="H2" t="n">
-        <v>4.68</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>5.14</v>
+        <v>10.4</v>
       </c>
       <c r="J2" t="n">
-        <v>20</v>
+        <v>14.7</v>
       </c>
       <c r="K2" t="n">
-        <v>16.94</v>
+        <v>15.72</v>
       </c>
     </row>
     <row r="3">
@@ -1830,34 +2101,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13.12</v>
+        <v>15.76</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.04</v>
+        <v>1.71</v>
       </c>
       <c r="E3" t="n">
-        <v>3.49</v>
+        <v>5.34</v>
       </c>
       <c r="F3" t="n">
-        <v>14.5</v>
+        <v>14.75</v>
       </c>
       <c r="G3" t="n">
-        <v>1.98</v>
+        <v>2.6</v>
       </c>
       <c r="H3" t="n">
-        <v>8.449999999999999</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>7.99</v>
+        <v>7.79</v>
       </c>
       <c r="J3" t="n">
-        <v>6.87</v>
+        <v>13.68</v>
       </c>
       <c r="K3" t="n">
-        <v>3.82</v>
+        <v>9.07</v>
       </c>
     </row>
     <row r="4">
@@ -1865,34 +2136,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.16</v>
+        <v>17.36</v>
       </c>
       <c r="C4" t="n">
-        <v>1.04</v>
+        <v>1.71</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>4.52</v>
+        <v>6.45</v>
       </c>
       <c r="F4" t="n">
-        <v>15.54</v>
+        <v>16.43</v>
       </c>
       <c r="G4" t="n">
-        <v>3.01</v>
+        <v>3.41</v>
       </c>
       <c r="H4" t="n">
-        <v>9.48</v>
+        <v>9.83</v>
       </c>
       <c r="I4" t="n">
-        <v>9.02</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>5.84</v>
+        <v>14.04</v>
       </c>
       <c r="K4" t="n">
-        <v>2.78</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="5">
@@ -1900,34 +2171,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.640000000000001</v>
+        <v>11.75</v>
       </c>
       <c r="C5" t="n">
-        <v>3.49</v>
+        <v>5.34</v>
       </c>
       <c r="D5" t="n">
-        <v>4.52</v>
+        <v>6.45</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>11.01</v>
+        <v>11.58</v>
       </c>
       <c r="G5" t="n">
-        <v>1.51</v>
+        <v>3.07</v>
       </c>
       <c r="H5" t="n">
-        <v>4.96</v>
+        <v>6.81</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>7.75</v>
       </c>
       <c r="J5" t="n">
-        <v>10.36</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>7.31</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="6">
@@ -1935,34 +2206,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.38</v>
+        <v>2.91</v>
       </c>
       <c r="C6" t="n">
-        <v>14.5</v>
+        <v>14.75</v>
       </c>
       <c r="D6" t="n">
-        <v>15.54</v>
+        <v>16.43</v>
       </c>
       <c r="E6" t="n">
-        <v>11.01</v>
+        <v>11.58</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>12.53</v>
+        <v>13.91</v>
       </c>
       <c r="H6" t="n">
-        <v>6.06</v>
+        <v>7</v>
       </c>
       <c r="I6" t="n">
-        <v>6.51</v>
+        <v>8.35</v>
       </c>
       <c r="J6" t="n">
-        <v>21.37</v>
+        <v>16.26</v>
       </c>
       <c r="K6" t="n">
-        <v>18.32</v>
+        <v>16.39</v>
       </c>
     </row>
     <row r="7">
@@ -1970,34 +2241,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.15</v>
+        <v>14.46</v>
       </c>
       <c r="C7" t="n">
-        <v>1.98</v>
+        <v>2.6</v>
       </c>
       <c r="D7" t="n">
-        <v>3.01</v>
+        <v>3.41</v>
       </c>
       <c r="E7" t="n">
-        <v>1.51</v>
+        <v>3.07</v>
       </c>
       <c r="F7" t="n">
-        <v>12.53</v>
+        <v>13.91</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>6.47</v>
+        <v>7.99</v>
       </c>
       <c r="I7" t="n">
-        <v>6.01</v>
+        <v>8.26</v>
       </c>
       <c r="J7" t="n">
-        <v>8.85</v>
+        <v>11.08</v>
       </c>
       <c r="K7" t="n">
-        <v>5.79</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="8">
@@ -2005,34 +2276,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.68</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>8.449999999999999</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>9.48</v>
+        <v>9.83</v>
       </c>
       <c r="E8" t="n">
-        <v>4.96</v>
+        <v>6.81</v>
       </c>
       <c r="F8" t="n">
-        <v>6.06</v>
+        <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>6.47</v>
+        <v>7.99</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.46</v>
+        <v>1.84</v>
       </c>
       <c r="J8" t="n">
-        <v>15.32</v>
+        <v>14.83</v>
       </c>
       <c r="K8" t="n">
-        <v>12.26</v>
+        <v>12.69</v>
       </c>
     </row>
     <row r="9">
@@ -2040,34 +2311,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.14</v>
+        <v>10.4</v>
       </c>
       <c r="C9" t="n">
-        <v>7.99</v>
+        <v>7.79</v>
       </c>
       <c r="D9" t="n">
-        <v>9.02</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>4.5</v>
+        <v>7.75</v>
       </c>
       <c r="F9" t="n">
-        <v>6.51</v>
+        <v>8.35</v>
       </c>
       <c r="G9" t="n">
-        <v>6.01</v>
+        <v>8.26</v>
       </c>
       <c r="H9" t="n">
-        <v>0.46</v>
+        <v>1.84</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>14.86</v>
+        <v>16.26</v>
       </c>
       <c r="K9" t="n">
-        <v>11.81</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="10">
@@ -2075,34 +2346,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>14.7</v>
       </c>
       <c r="C10" t="n">
-        <v>6.87</v>
+        <v>13.68</v>
       </c>
       <c r="D10" t="n">
-        <v>5.84</v>
+        <v>14.04</v>
       </c>
       <c r="E10" t="n">
-        <v>10.36</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>21.37</v>
+        <v>16.26</v>
       </c>
       <c r="G10" t="n">
-        <v>8.85</v>
+        <v>11.08</v>
       </c>
       <c r="H10" t="n">
-        <v>15.32</v>
+        <v>14.83</v>
       </c>
       <c r="I10" t="n">
-        <v>14.86</v>
+        <v>16.26</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3.05</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="11">
@@ -2110,31 +2381,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>16.94</v>
+        <v>15.72</v>
       </c>
       <c r="C11" t="n">
-        <v>3.82</v>
+        <v>9.07</v>
       </c>
       <c r="D11" t="n">
-        <v>2.78</v>
+        <v>9.09</v>
       </c>
       <c r="E11" t="n">
-        <v>7.31</v>
+        <v>5.92</v>
       </c>
       <c r="F11" t="n">
-        <v>18.32</v>
+        <v>16.39</v>
       </c>
       <c r="G11" t="n">
-        <v>5.79</v>
+        <v>6.62</v>
       </c>
       <c r="H11" t="n">
-        <v>12.26</v>
+        <v>12.69</v>
       </c>
       <c r="I11" t="n">
-        <v>11.81</v>
+        <v>13.67</v>
       </c>
       <c r="J11" t="n">
-        <v>3.05</v>
+        <v>5.31</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -2172,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-10.10331547055263</v>
+        <v>6.36924057263283</v>
       </c>
       <c r="C2" t="n">
-        <v>-10.10331547055445</v>
+        <v>7.818766259219039</v>
       </c>
     </row>
     <row r="3">
@@ -2183,10 +2454,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.8228658324741297</v>
+        <v>-5.409738227259941</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.8228658324722279</v>
+        <v>-2.657905493935762</v>
       </c>
     </row>
     <row r="4">
@@ -2194,10 +2465,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.09000393295905647</v>
+        <v>-6.172901245399274</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.09000393295711938</v>
+        <v>-4.188241551603805</v>
       </c>
     </row>
     <row r="5">
@@ -2205,10 +2476,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-3.289083021406737</v>
+        <v>-0.1090784841669244</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.289083021408595</v>
+        <v>-1.978506236886504</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2487,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-11.07708405330488</v>
+        <v>3.686460100020466</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.07708405330509</v>
+        <v>8.957854656574108</v>
       </c>
     </row>
     <row r="7">
@@ -2227,10 +2498,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.22017549461639</v>
+        <v>-2.885182314281689</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.220175494613116</v>
+        <v>-3.296940203491076</v>
       </c>
     </row>
     <row r="8">
@@ -2238,10 +2509,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-6.795004090471066</v>
+        <v>-1.810980383154181</v>
       </c>
       <c r="C8" t="n">
-        <v>-6.795004090492325</v>
+        <v>4.618971075253591</v>
       </c>
     </row>
     <row r="9">
@@ -2249,10 +2520,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-6.470872042089795</v>
+        <v>-3.623523492165802</v>
       </c>
       <c r="C9" t="n">
-        <v>-6.470872042059392</v>
+        <v>4.92565173847977</v>
       </c>
     </row>
     <row r="10">
@@ -2260,10 +2531,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.036075569107632</v>
+        <v>7.620365754793252</v>
       </c>
       <c r="C10" t="n">
-        <v>4.036075569108129</v>
+        <v>-6.823891736670641</v>
       </c>
     </row>
     <row r="11">
@@ -2271,10 +2542,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.876812994200053</v>
+        <v>2.335337718981263</v>
       </c>
       <c r="C11" t="n">
-        <v>1.876812994197857</v>
+        <v>-7.375758506938721</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,40 +2568,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -2338,25 +2604,349 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0001931190490722656</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001804828643798828</v>
+        <v>12.6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3347065448760986</v>
+        <v>13.38</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7335481643676758</v>
+        <v>4.82</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09584546089172363</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.285048246383667</v>
+        <v>12.13</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9664247035980225</v>
+        <v>6.38</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="J2" t="n">
+        <v>14.93</v>
+      </c>
+      <c r="K2" t="n">
+        <v>7.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="G3" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="K3" t="n">
+        <v>17.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>13.38</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>17.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="K5" t="n">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K6" t="n">
+        <v>15.86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="J7" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8.869999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="G8" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="J8" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="K8" t="n">
+        <v>13.38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14.93</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="F10" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="H10" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>16.49</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="C11" t="n">
+        <v>17.26</v>
+      </c>
+      <c r="D11" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="F11" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="H11" t="n">
+        <v>13.38</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="J11" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2379,262 +2969,522 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>estimation_technique</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>max_error</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>max_percent_error</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>avg_error</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>avg_percent_error</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>true_pos_rate</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>false_pos_rate</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>runtime</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
+      <c r="B2" t="n">
+        <v>-0.2692116753652883</v>
       </c>
       <c r="C2" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6670602125147578</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.350222222222222</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.2324830225608334</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0001931190490722656</v>
+        <v>-0.3711093089386077</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
+      <c r="B3" t="n">
+        <v>-0.0307999453989323</v>
       </c>
       <c r="C3" t="n">
-        <v>5.295</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6251475796930341</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.512444444444444</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1474350137746126</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0001804828643798828</v>
+        <v>0.4047011242297557</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0.01205395115028973</v>
       </c>
       <c r="C4" t="n">
-        <v>4.140000000000001</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6492537313432835</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.405333333333333</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1553681535344704</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.02380952380952381</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.3347065448760986</v>
+        <v>0.4385658248787544</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
+      <c r="B5" t="n">
+        <v>-0.07974927845777224</v>
       </c>
       <c r="C5" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.077586206896552</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.369555555555557</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.3657431231813236</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.09523809523809523</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.7335481643676758</v>
+        <v>-0.1224350128655723</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
+      <c r="B6" t="n">
+        <v>-0.3169239626971561</v>
       </c>
       <c r="C6" t="n">
-        <v>4.039999999999999</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.508620689655173</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.188444444444444</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1497304875976307</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.09584546089172363</v>
+        <v>0.2482934008236044</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
+      <c r="B7" t="n">
+        <v>0.5123022614126697</v>
       </c>
       <c r="C7" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.8706896551724138</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.088888888888889</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.2361475832875476</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.02380952380952381</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.285048246383667</v>
+        <v>-0.3487570485031822</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B8" t="n">
+        <v>-0.464043541582285</v>
       </c>
       <c r="C8" t="n">
-        <v>7.620000000000001</v>
+        <v>-0.01439616876402239</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.2020531911729573</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01704865908866329</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4318025296144963</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2897591597017863</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.05970730996290202</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.7026857441299297</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.16</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G2" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="J2" t="n">
+        <v>20</v>
+      </c>
+      <c r="K2" t="n">
+        <v>16.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="F3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14.16</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15.54</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="C6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.54</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="J6" t="n">
+        <v>21.37</v>
+      </c>
+      <c r="K6" t="n">
+        <v>18.32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="F7" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8.449999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7134020618556701</v>
+        <v>9.48</v>
       </c>
       <c r="E8" t="n">
-        <v>2.715555555555556</v>
+        <v>4.96</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2814478832460284</v>
+        <v>6.06</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>6.47</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04761904761904762</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9664247035980225</v>
+        <v>0.46</v>
+      </c>
+      <c r="J8" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="K8" t="n">
+        <v>12.26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>14.86</v>
+      </c>
+      <c r="K9" t="n">
+        <v>11.81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="F10" t="n">
+        <v>21.37</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="H10" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="I10" t="n">
+        <v>14.86</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>16.94</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="F11" t="n">
+        <v>18.32</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="H11" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3040,6 +3890,1325 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-10.10331547055263</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-10.10331547055445</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.8228658324741297</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.8228658324722279</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.09000393295905647</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.09000393295711938</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-3.289083021406737</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-3.289083021408595</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-11.07708405330488</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-11.07708405330509</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-2.22017549461639</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2.220175494613116</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-6.795004090471066</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-6.795004090492325</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-6.470872042089795</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-6.470872042059392</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.036075569107632</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.036075569108129</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.876812994200053</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.876812994197857</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15.06</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="E2" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="H2" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="I2" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="K2" t="n">
+        <v>13.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>15.06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="J3" t="n">
+        <v>15.06</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="K5" t="n">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="C6" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="J6" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>15.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="F7" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="J7" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="K7" t="n">
+        <v>10.93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J8" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="K8" t="n">
+        <v>15.06</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="K9" t="n">
+        <v>15.23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="C10" t="n">
+        <v>15.06</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="F10" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="H10" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="I10" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="C11" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="F11" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="H11" t="n">
+        <v>15.06</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.5042466153446524</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.205523303775844</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2732172812990541</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.262162124826945</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3290245623178518</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2235054443795311</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1709162476076331</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.05148736040829141</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.5172491977277693</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.01978761895402087</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2909451241170752</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1889728129045833</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.2317599100303928</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2781311863640996</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.1942921773166283</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3216088837616944</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1010434456297047</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.633709018396265</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.2824012394489644</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.4668478715189094</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.27</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="G2" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="H2" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="I2" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J2" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>17.27</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="F4" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>14.21</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="E6" t="n">
+        <v>14.21</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="K6" t="n">
+        <v>16.86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="F7" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="J7" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="J8" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K8" t="n">
+        <v>12.77</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="K9" t="n">
+        <v>12.81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="D10" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="F10" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="G10" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="H10" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>16</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>16.86</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="H11" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20.35135218679713</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.055519601090454</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-9.581335029862647</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-6.323490378742571</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-11.41288284310581</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-4.923568958216289</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-6.892272858984138</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2.662916654960645</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20.41761124667064</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.6179187902477675</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-11.11455232508048</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-4.273291047331073</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6.568472298149016</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-7.227510168781401</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.459606329101424</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-8.258729203246752</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-3.896043541964454</v>
+      </c>
+      <c r="C10" t="n">
+        <v>18.16458678483108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-9.899955461720673</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11.06731881560496</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>rss_pre_averaged</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>spring_model_5inits</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>lle</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>isomap</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0002014636993408203</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.000164031982421875</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0001671314239501953</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.240196704864502</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.8449788093566895</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.20963454246521</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.05009865760803223</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.1538591384887695</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01000428199768066</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.008019447326660156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -5344,31 +7513,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>15.15</v>
+        <v>14.57</v>
       </c>
       <c r="D2" t="n">
-        <v>13.68</v>
+        <v>16.13</v>
       </c>
       <c r="E2" t="n">
-        <v>10.01</v>
+        <v>12.5</v>
       </c>
       <c r="F2" t="n">
-        <v>1.51</v>
+        <v>1.83</v>
       </c>
       <c r="G2" t="n">
-        <v>14.71</v>
+        <v>14.37</v>
       </c>
       <c r="H2" t="n">
-        <v>6.73</v>
+        <v>7.74</v>
       </c>
       <c r="I2" t="n">
-        <v>14.12</v>
+        <v>7.02</v>
       </c>
       <c r="J2" t="n">
-        <v>12.62</v>
+        <v>13.69</v>
       </c>
       <c r="K2" t="n">
-        <v>14.69</v>
+        <v>14.96</v>
       </c>
     </row>
     <row r="3">
@@ -5376,34 +7545,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.6</v>
+        <v>14.57</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.91</v>
+        <v>1.56</v>
       </c>
       <c r="E3" t="n">
-        <v>4.67</v>
+        <v>5.02</v>
       </c>
       <c r="F3" t="n">
-        <v>14.74</v>
+        <v>14.69</v>
       </c>
       <c r="G3" t="n">
-        <v>3.44</v>
+        <v>1.77</v>
       </c>
       <c r="H3" t="n">
-        <v>6.47</v>
+        <v>6.83</v>
       </c>
       <c r="I3" t="n">
-        <v>8.24</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>9.16</v>
+        <v>13.77</v>
       </c>
       <c r="K3" t="n">
-        <v>6.09</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="4">
@@ -5411,34 +7580,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>18.4</v>
+        <v>16.13</v>
       </c>
       <c r="C4" t="n">
-        <v>1.85</v>
+        <v>1.56</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>4.13</v>
+        <v>6.1</v>
       </c>
       <c r="F4" t="n">
-        <v>19.13</v>
+        <v>16.22</v>
       </c>
       <c r="G4" t="n">
-        <v>3.3</v>
+        <v>2.63</v>
       </c>
       <c r="H4" t="n">
-        <v>11.8</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>10.14</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>11.18</v>
+        <v>14.74</v>
       </c>
       <c r="K4" t="n">
-        <v>7.94</v>
+        <v>9.970000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -5446,34 +7615,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14.36</v>
+        <v>12.5</v>
       </c>
       <c r="C5" t="n">
-        <v>9.279999999999999</v>
+        <v>5.02</v>
       </c>
       <c r="D5" t="n">
-        <v>6.15</v>
+        <v>6.1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>9.16</v>
+        <v>13.22</v>
       </c>
       <c r="G5" t="n">
-        <v>3.32</v>
+        <v>3.47</v>
       </c>
       <c r="H5" t="n">
-        <v>8.32</v>
+        <v>5.74</v>
       </c>
       <c r="I5" t="n">
-        <v>8.18</v>
+        <v>7.87</v>
       </c>
       <c r="J5" t="n">
-        <v>12.76</v>
+        <v>8.75</v>
       </c>
       <c r="K5" t="n">
-        <v>4.51</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="6">
@@ -5481,34 +7650,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.34</v>
+        <v>1.83</v>
       </c>
       <c r="C6" t="n">
-        <v>11.08</v>
+        <v>14.69</v>
       </c>
       <c r="D6" t="n">
-        <v>13.7</v>
+        <v>16.22</v>
       </c>
       <c r="E6" t="n">
-        <v>12.54</v>
+        <v>13.22</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>16.3</v>
+        <v>14.7</v>
       </c>
       <c r="H6" t="n">
-        <v>8.789999999999999</v>
+        <v>7.98</v>
       </c>
       <c r="I6" t="n">
-        <v>7.85</v>
+        <v>6.76</v>
       </c>
       <c r="J6" t="n">
-        <v>25.12</v>
+        <v>15.27</v>
       </c>
       <c r="K6" t="n">
-        <v>15.53</v>
+        <v>16.12</v>
       </c>
     </row>
     <row r="7">
@@ -5516,34 +7685,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.09</v>
+        <v>14.37</v>
       </c>
       <c r="C7" t="n">
-        <v>3.22</v>
+        <v>1.77</v>
       </c>
       <c r="D7" t="n">
-        <v>3.53</v>
+        <v>2.63</v>
       </c>
       <c r="E7" t="n">
-        <v>3.26</v>
+        <v>3.47</v>
       </c>
       <c r="F7" t="n">
-        <v>13.25</v>
+        <v>14.7</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>10.7</v>
+        <v>6.72</v>
       </c>
       <c r="I7" t="n">
-        <v>6.34</v>
+        <v>8.33</v>
       </c>
       <c r="J7" t="n">
-        <v>14.63</v>
+        <v>12.14</v>
       </c>
       <c r="K7" t="n">
-        <v>9.24</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="8">
@@ -5551,34 +7720,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9.289999999999999</v>
+        <v>7.74</v>
       </c>
       <c r="C8" t="n">
-        <v>14.62</v>
+        <v>6.83</v>
       </c>
       <c r="D8" t="n">
-        <v>10.14</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>3.69</v>
+        <v>5.74</v>
       </c>
       <c r="F8" t="n">
-        <v>11.02</v>
+        <v>7.98</v>
       </c>
       <c r="G8" t="n">
-        <v>5.68</v>
+        <v>6.72</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.98</v>
+        <v>2.21</v>
       </c>
       <c r="J8" t="n">
-        <v>16.73</v>
+        <v>11.55</v>
       </c>
       <c r="K8" t="n">
-        <v>13.44</v>
+        <v>9.83</v>
       </c>
     </row>
     <row r="9">
@@ -5586,34 +7755,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13.41</v>
+        <v>7.02</v>
       </c>
       <c r="C9" t="n">
-        <v>6.91</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>12.15</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>8.85</v>
+        <v>7.87</v>
       </c>
       <c r="F9" t="n">
-        <v>5.69</v>
+        <v>6.76</v>
       </c>
       <c r="G9" t="n">
-        <v>8.73</v>
+        <v>8.33</v>
       </c>
       <c r="H9" t="n">
-        <v>1.47</v>
+        <v>2.21</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>13.01</v>
+        <v>13.52</v>
       </c>
       <c r="K9" t="n">
-        <v>19.91</v>
+        <v>12.04</v>
       </c>
     </row>
     <row r="10">
@@ -5621,34 +7790,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15.01</v>
+        <v>13.69</v>
       </c>
       <c r="C10" t="n">
-        <v>20.91</v>
+        <v>13.77</v>
       </c>
       <c r="D10" t="n">
-        <v>20.21</v>
+        <v>14.74</v>
       </c>
       <c r="E10" t="n">
-        <v>8.26</v>
+        <v>8.75</v>
       </c>
       <c r="F10" t="n">
-        <v>14.93</v>
+        <v>15.27</v>
       </c>
       <c r="G10" t="n">
-        <v>6.88</v>
+        <v>12.14</v>
       </c>
       <c r="H10" t="n">
-        <v>12.29</v>
+        <v>11.55</v>
       </c>
       <c r="I10" t="n">
-        <v>13.59</v>
+        <v>13.52</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>8.460000000000001</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="11">
@@ -5656,31 +7825,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>18.7</v>
+        <v>14.96</v>
       </c>
       <c r="C11" t="n">
-        <v>10.08</v>
+        <v>9.33</v>
       </c>
       <c r="D11" t="n">
-        <v>12.52</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>3.99</v>
+        <v>4.8</v>
       </c>
       <c r="F11" t="n">
-        <v>14.24</v>
+        <v>16.12</v>
       </c>
       <c r="G11" t="n">
-        <v>6.34</v>
+        <v>7.57</v>
       </c>
       <c r="H11" t="n">
-        <v>13.6</v>
+        <v>9.83</v>
       </c>
       <c r="I11" t="n">
-        <v>11.1</v>
+        <v>12.04</v>
       </c>
       <c r="J11" t="n">
-        <v>4.13</v>
+        <v>5.46</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -5692,6 +7861,421 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>14.4604831990325</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.607429733667049</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.28680641108595</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8.836780491761658</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.07957313702037086</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.594388986957565</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.026413553307401</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.870977951138399</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>15.24088276391823</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.261081909956177</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8236268147843778</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.123457211811304</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7.421002997388539</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.830931889984126</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9.154770951797829</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.19816091868378</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.967082829431659</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-4.827293842168506</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.1970814516676063</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.3791973976173713</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>estimation_technique</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>max_error</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>max_percent_error</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>avg_error</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>avg_percent_error</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>true_pos_rate</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>false_pos_rate</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6670602125147578</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.350222222222222</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2324830225608334</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0001931190490722656</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5.295</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6251475796930341</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.512444444444444</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1474350137746126</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0001804828643798828</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>spring_model</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4.140000000000001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6492537313432835</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.405333333333333</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1553681535344704</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.02380952380952381</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3347065448760986</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.077586206896552</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.369555555555557</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3657431231813236</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.7335481643676758</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4.039999999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.508620689655173</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.188444444444444</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1497304875976307</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.09584546089172363</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8706896551724138</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.088888888888889</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2361475832875476</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.02380952380952381</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.285048246383667</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7.620000000000001</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7134020618556701</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.715555555555556</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2814478832460284</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.9664247035980225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5745,31 +8329,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>14.875</v>
+        <v>15.15</v>
       </c>
       <c r="D2" t="n">
-        <v>16.04</v>
+        <v>13.68</v>
       </c>
       <c r="E2" t="n">
-        <v>12.185</v>
+        <v>10.01</v>
       </c>
       <c r="F2" t="n">
-        <v>1.425</v>
+        <v>1.51</v>
       </c>
       <c r="G2" t="n">
-        <v>14.9</v>
+        <v>14.71</v>
       </c>
       <c r="H2" t="n">
-        <v>8.01</v>
+        <v>6.73</v>
       </c>
       <c r="I2" t="n">
-        <v>13.765</v>
+        <v>14.12</v>
       </c>
       <c r="J2" t="n">
-        <v>13.815</v>
+        <v>12.62</v>
       </c>
       <c r="K2" t="n">
-        <v>16.695</v>
+        <v>14.69</v>
       </c>
     </row>
     <row r="3">
@@ -5777,34 +8361,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.875</v>
+        <v>14.6</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.38</v>
+        <v>0.91</v>
       </c>
       <c r="E3" t="n">
-        <v>6.975</v>
+        <v>4.67</v>
       </c>
       <c r="F3" t="n">
-        <v>12.91</v>
+        <v>14.74</v>
       </c>
       <c r="G3" t="n">
-        <v>3.33</v>
+        <v>3.44</v>
       </c>
       <c r="H3" t="n">
-        <v>10.545</v>
+        <v>6.47</v>
       </c>
       <c r="I3" t="n">
-        <v>7.575</v>
+        <v>8.24</v>
       </c>
       <c r="J3" t="n">
-        <v>15.035</v>
+        <v>9.16</v>
       </c>
       <c r="K3" t="n">
-        <v>8.085000000000001</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="4">
@@ -5812,34 +8396,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16.04</v>
+        <v>18.4</v>
       </c>
       <c r="C4" t="n">
-        <v>1.38</v>
+        <v>1.85</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>5.140000000000001</v>
+        <v>4.13</v>
       </c>
       <c r="F4" t="n">
-        <v>16.415</v>
+        <v>19.13</v>
       </c>
       <c r="G4" t="n">
-        <v>3.415</v>
+        <v>3.3</v>
       </c>
       <c r="H4" t="n">
-        <v>10.97</v>
+        <v>11.8</v>
       </c>
       <c r="I4" t="n">
-        <v>11.145</v>
+        <v>10.14</v>
       </c>
       <c r="J4" t="n">
-        <v>15.695</v>
+        <v>11.18</v>
       </c>
       <c r="K4" t="n">
-        <v>10.23</v>
+        <v>7.94</v>
       </c>
     </row>
     <row r="5">
@@ -5847,34 +8431,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.185</v>
+        <v>14.36</v>
       </c>
       <c r="C5" t="n">
-        <v>6.975</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>5.140000000000001</v>
+        <v>6.15</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>10.85</v>
+        <v>9.16</v>
       </c>
       <c r="G5" t="n">
-        <v>3.29</v>
+        <v>3.32</v>
       </c>
       <c r="H5" t="n">
-        <v>6.005</v>
+        <v>8.32</v>
       </c>
       <c r="I5" t="n">
-        <v>8.515000000000001</v>
+        <v>8.18</v>
       </c>
       <c r="J5" t="n">
-        <v>10.51</v>
+        <v>12.76</v>
       </c>
       <c r="K5" t="n">
-        <v>4.25</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="6">
@@ -5882,34 +8466,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.425</v>
+        <v>1.34</v>
       </c>
       <c r="C6" t="n">
-        <v>12.91</v>
+        <v>11.08</v>
       </c>
       <c r="D6" t="n">
-        <v>16.415</v>
+        <v>13.7</v>
       </c>
       <c r="E6" t="n">
-        <v>10.85</v>
+        <v>12.54</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>14.775</v>
+        <v>16.3</v>
       </c>
       <c r="H6" t="n">
-        <v>9.904999999999999</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>6.77</v>
+        <v>7.85</v>
       </c>
       <c r="J6" t="n">
-        <v>20.025</v>
+        <v>25.12</v>
       </c>
       <c r="K6" t="n">
-        <v>14.885</v>
+        <v>15.53</v>
       </c>
     </row>
     <row r="7">
@@ -5917,34 +8501,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.9</v>
+        <v>15.09</v>
       </c>
       <c r="C7" t="n">
-        <v>3.33</v>
+        <v>3.22</v>
       </c>
       <c r="D7" t="n">
-        <v>3.415</v>
+        <v>3.53</v>
       </c>
       <c r="E7" t="n">
-        <v>3.29</v>
+        <v>3.26</v>
       </c>
       <c r="F7" t="n">
-        <v>14.775</v>
+        <v>13.25</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>8.19</v>
+        <v>10.7</v>
       </c>
       <c r="I7" t="n">
-        <v>7.535</v>
+        <v>6.34</v>
       </c>
       <c r="J7" t="n">
-        <v>10.755</v>
+        <v>14.63</v>
       </c>
       <c r="K7" t="n">
-        <v>7.79</v>
+        <v>9.24</v>
       </c>
     </row>
     <row r="8">
@@ -5952,34 +8536,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8.01</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>10.545</v>
+        <v>14.62</v>
       </c>
       <c r="D8" t="n">
-        <v>10.97</v>
+        <v>10.14</v>
       </c>
       <c r="E8" t="n">
-        <v>6.005</v>
+        <v>3.69</v>
       </c>
       <c r="F8" t="n">
-        <v>9.904999999999999</v>
+        <v>11.02</v>
       </c>
       <c r="G8" t="n">
-        <v>8.19</v>
+        <v>5.68</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.725</v>
+        <v>1.98</v>
       </c>
       <c r="J8" t="n">
-        <v>14.51</v>
+        <v>16.73</v>
       </c>
       <c r="K8" t="n">
-        <v>13.52</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="9">
@@ -5987,34 +8571,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13.765</v>
+        <v>13.41</v>
       </c>
       <c r="C9" t="n">
-        <v>7.575</v>
+        <v>6.91</v>
       </c>
       <c r="D9" t="n">
-        <v>11.145</v>
+        <v>12.15</v>
       </c>
       <c r="E9" t="n">
-        <v>8.515000000000001</v>
+        <v>8.85</v>
       </c>
       <c r="F9" t="n">
-        <v>6.77</v>
+        <v>5.69</v>
       </c>
       <c r="G9" t="n">
-        <v>7.535</v>
+        <v>8.73</v>
       </c>
       <c r="H9" t="n">
-        <v>1.725</v>
+        <v>1.47</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>13.3</v>
+        <v>13.01</v>
       </c>
       <c r="K9" t="n">
-        <v>15.505</v>
+        <v>19.91</v>
       </c>
     </row>
     <row r="10">
@@ -6022,34 +8606,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13.815</v>
+        <v>15.01</v>
       </c>
       <c r="C10" t="n">
-        <v>15.035</v>
+        <v>20.91</v>
       </c>
       <c r="D10" t="n">
-        <v>15.695</v>
+        <v>20.21</v>
       </c>
       <c r="E10" t="n">
-        <v>10.51</v>
+        <v>8.26</v>
       </c>
       <c r="F10" t="n">
-        <v>20.025</v>
+        <v>14.93</v>
       </c>
       <c r="G10" t="n">
-        <v>10.755</v>
+        <v>6.88</v>
       </c>
       <c r="H10" t="n">
-        <v>14.51</v>
+        <v>12.29</v>
       </c>
       <c r="I10" t="n">
-        <v>13.3</v>
+        <v>13.59</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>6.295</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -6057,572 +8641,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>16.695</v>
+        <v>18.7</v>
       </c>
       <c r="C11" t="n">
-        <v>8.085000000000001</v>
+        <v>10.08</v>
       </c>
       <c r="D11" t="n">
-        <v>10.23</v>
+        <v>12.52</v>
       </c>
       <c r="E11" t="n">
-        <v>4.25</v>
+        <v>3.99</v>
       </c>
       <c r="F11" t="n">
-        <v>14.885</v>
+        <v>14.24</v>
       </c>
       <c r="G11" t="n">
-        <v>7.79</v>
+        <v>6.34</v>
       </c>
       <c r="H11" t="n">
-        <v>13.52</v>
+        <v>13.6</v>
       </c>
       <c r="I11" t="n">
-        <v>15.505</v>
+        <v>11.1</v>
       </c>
       <c r="J11" t="n">
-        <v>6.295</v>
+        <v>4.13</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>14.57</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="E2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="G2" t="n">
-        <v>14.37</v>
-      </c>
-      <c r="H2" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="I2" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="J2" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="K2" t="n">
-        <v>14.96</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>14.57</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="F3" t="n">
-        <v>14.69</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="H3" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="J3" t="n">
-        <v>13.77</v>
-      </c>
-      <c r="K3" t="n">
-        <v>9.33</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>16.22</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14.74</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9.970000000000001</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>13.22</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="J5" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="C6" t="n">
-        <v>14.69</v>
-      </c>
-      <c r="D6" t="n">
-        <v>16.22</v>
-      </c>
-      <c r="E6" t="n">
-        <v>13.22</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.76</v>
-      </c>
-      <c r="J6" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="K6" t="n">
-        <v>16.12</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>14.37</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="F7" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="I7" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="J7" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="K7" t="n">
-        <v>7.57</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="D8" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="G8" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="K8" t="n">
-        <v>9.83</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="C9" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="D9" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="F9" t="n">
-        <v>6.76</v>
-      </c>
-      <c r="G9" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>13.52</v>
-      </c>
-      <c r="K9" t="n">
-        <v>12.04</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="C10" t="n">
-        <v>13.77</v>
-      </c>
-      <c r="D10" t="n">
-        <v>14.74</v>
-      </c>
-      <c r="E10" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="F10" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="G10" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="H10" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="I10" t="n">
-        <v>13.52</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5.46</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>14.96</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="D11" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="F11" t="n">
-        <v>16.12</v>
-      </c>
-      <c r="G11" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="H11" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="I11" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>14.4604831990325</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.607429733667049</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.28680641108595</v>
-      </c>
-      <c r="C3" t="n">
-        <v>8.836780491761658</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.07957313702037086</v>
-      </c>
-      <c r="C4" t="n">
-        <v>9.594388986957565</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2.026413553307401</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3.870977951138399</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>15.24088276391823</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4.261081909956177</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.8236268147843778</v>
-      </c>
-      <c r="C7" t="n">
-        <v>7.123457211811304</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7.421002997388539</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5.830931889984126</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>9.154770951797829</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7.19816091868378</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2.967082829431659</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-4.827293842168506</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-0.1970814516676063</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-0.3791973976173713</v>
       </c>
     </row>
   </sheetData>
@@ -6684,31 +8730,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>10.01</v>
+        <v>14.87</v>
       </c>
       <c r="D2" t="n">
-        <v>11.28</v>
+        <v>15.87</v>
       </c>
       <c r="E2" t="n">
-        <v>7.21</v>
+        <v>11.99</v>
       </c>
       <c r="F2" t="n">
-        <v>3.57</v>
+        <v>1.42</v>
       </c>
       <c r="G2" t="n">
-        <v>8.460000000000001</v>
+        <v>14.9</v>
       </c>
       <c r="H2" t="n">
-        <v>1.51</v>
+        <v>7.91</v>
       </c>
       <c r="I2" t="n">
-        <v>2.28</v>
+        <v>13.76</v>
       </c>
       <c r="J2" t="n">
-        <v>15.69</v>
+        <v>13.76</v>
       </c>
       <c r="K2" t="n">
-        <v>12.86</v>
+        <v>16.57</v>
       </c>
     </row>
     <row r="3">
@@ -6716,34 +8762,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10.01</v>
+        <v>14.87</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="E3" t="n">
-        <v>2.8</v>
+        <v>6.59</v>
       </c>
       <c r="F3" t="n">
-        <v>13.58</v>
+        <v>12.78</v>
       </c>
       <c r="G3" t="n">
-        <v>1.55</v>
+        <v>3.33</v>
       </c>
       <c r="H3" t="n">
-        <v>8.5</v>
+        <v>9.73</v>
       </c>
       <c r="I3" t="n">
-        <v>7.73</v>
+        <v>7.55</v>
       </c>
       <c r="J3" t="n">
-        <v>5.68</v>
+        <v>13.84</v>
       </c>
       <c r="K3" t="n">
-        <v>2.85</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="4">
@@ -6751,34 +8797,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.28</v>
+        <v>15.87</v>
       </c>
       <c r="C4" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>4.07</v>
+        <v>5.04</v>
       </c>
       <c r="F4" t="n">
-        <v>14.85</v>
+        <v>16.19</v>
       </c>
       <c r="G4" t="n">
-        <v>2.82</v>
+        <v>3.41</v>
       </c>
       <c r="H4" t="n">
-        <v>9.77</v>
+        <v>10.94</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>11.1</v>
       </c>
       <c r="J4" t="n">
-        <v>4.41</v>
+        <v>15.03</v>
       </c>
       <c r="K4" t="n">
-        <v>1.58</v>
+        <v>9.970000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -6786,34 +8832,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.21</v>
+        <v>11.99</v>
       </c>
       <c r="C5" t="n">
-        <v>2.8</v>
+        <v>6.59</v>
       </c>
       <c r="D5" t="n">
-        <v>4.07</v>
+        <v>5.04</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>10.78</v>
+        <v>10.72</v>
       </c>
       <c r="G5" t="n">
-        <v>1.25</v>
+        <v>3.29</v>
       </c>
       <c r="H5" t="n">
-        <v>5.7</v>
+        <v>5.54</v>
       </c>
       <c r="I5" t="n">
-        <v>4.93</v>
+        <v>8.51</v>
       </c>
       <c r="J5" t="n">
-        <v>8.48</v>
+        <v>10.27</v>
       </c>
       <c r="K5" t="n">
-        <v>5.65</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="6">
@@ -6821,34 +8867,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.57</v>
+        <v>1.42</v>
       </c>
       <c r="C6" t="n">
-        <v>13.58</v>
+        <v>12.78</v>
       </c>
       <c r="D6" t="n">
-        <v>14.85</v>
+        <v>16.19</v>
       </c>
       <c r="E6" t="n">
-        <v>10.78</v>
+        <v>10.72</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>12.03</v>
+        <v>14.7</v>
       </c>
       <c r="H6" t="n">
-        <v>5.08</v>
+        <v>9.84</v>
       </c>
       <c r="I6" t="n">
-        <v>5.85</v>
+        <v>6.68</v>
       </c>
       <c r="J6" t="n">
-        <v>19.26</v>
+        <v>19.36</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44</v>
+        <v>14.87</v>
       </c>
     </row>
     <row r="7">
@@ -6856,34 +8902,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.460000000000001</v>
+        <v>14.9</v>
       </c>
       <c r="C7" t="n">
-        <v>1.55</v>
+        <v>3.33</v>
       </c>
       <c r="D7" t="n">
-        <v>2.82</v>
+        <v>3.41</v>
       </c>
       <c r="E7" t="n">
-        <v>1.25</v>
+        <v>3.29</v>
       </c>
       <c r="F7" t="n">
-        <v>12.03</v>
+        <v>14.7</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>6.95</v>
+        <v>7.79</v>
       </c>
       <c r="I7" t="n">
-        <v>6.18</v>
+        <v>7.44</v>
       </c>
       <c r="J7" t="n">
-        <v>7.23</v>
+        <v>10.03</v>
       </c>
       <c r="K7" t="n">
-        <v>4.4</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="8">
@@ -6891,34 +8937,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.51</v>
+        <v>7.91</v>
       </c>
       <c r="C8" t="n">
-        <v>8.5</v>
+        <v>9.73</v>
       </c>
       <c r="D8" t="n">
-        <v>9.77</v>
+        <v>10.94</v>
       </c>
       <c r="E8" t="n">
-        <v>5.7</v>
+        <v>5.54</v>
       </c>
       <c r="F8" t="n">
-        <v>5.08</v>
+        <v>9.84</v>
       </c>
       <c r="G8" t="n">
-        <v>6.95</v>
+        <v>7.79</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.77</v>
+        <v>1.71</v>
       </c>
       <c r="J8" t="n">
-        <v>14.18</v>
+        <v>14.34</v>
       </c>
       <c r="K8" t="n">
-        <v>11.36</v>
+        <v>13.52</v>
       </c>
     </row>
     <row r="9">
@@ -6926,34 +8972,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.28</v>
+        <v>13.76</v>
       </c>
       <c r="C9" t="n">
-        <v>7.73</v>
+        <v>7.55</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>11.1</v>
       </c>
       <c r="E9" t="n">
-        <v>4.93</v>
+        <v>8.51</v>
       </c>
       <c r="F9" t="n">
-        <v>5.85</v>
+        <v>6.68</v>
       </c>
       <c r="G9" t="n">
-        <v>6.18</v>
+        <v>7.44</v>
       </c>
       <c r="H9" t="n">
-        <v>0.77</v>
+        <v>1.71</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>13.41</v>
+        <v>13.3</v>
       </c>
       <c r="K9" t="n">
-        <v>10.58</v>
+        <v>14.87</v>
       </c>
     </row>
     <row r="10">
@@ -6961,34 +9007,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15.69</v>
+        <v>13.76</v>
       </c>
       <c r="C10" t="n">
-        <v>5.68</v>
+        <v>13.84</v>
       </c>
       <c r="D10" t="n">
-        <v>4.41</v>
+        <v>15.03</v>
       </c>
       <c r="E10" t="n">
-        <v>8.48</v>
+        <v>10.27</v>
       </c>
       <c r="F10" t="n">
-        <v>19.26</v>
+        <v>19.36</v>
       </c>
       <c r="G10" t="n">
-        <v>7.23</v>
+        <v>10.03</v>
       </c>
       <c r="H10" t="n">
-        <v>14.18</v>
+        <v>14.34</v>
       </c>
       <c r="I10" t="n">
-        <v>13.41</v>
+        <v>13.3</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2.83</v>
+        <v>5.91</v>
       </c>
     </row>
     <row r="11">
@@ -6996,31 +9042,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.86</v>
+        <v>16.57</v>
       </c>
       <c r="C11" t="n">
-        <v>2.85</v>
+        <v>7.84</v>
       </c>
       <c r="D11" t="n">
-        <v>1.58</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>5.65</v>
+        <v>4.24</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44</v>
+        <v>14.87</v>
       </c>
       <c r="G11" t="n">
-        <v>4.4</v>
+        <v>7.65</v>
       </c>
       <c r="H11" t="n">
-        <v>11.36</v>
+        <v>13.52</v>
       </c>
       <c r="I11" t="n">
-        <v>10.58</v>
+        <v>14.87</v>
       </c>
       <c r="J11" t="n">
-        <v>2.83</v>
+        <v>5.91</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
